--- a/Excel-XLSX/UN-NGR.xlsx
+++ b/Excel-XLSX/UN-NGR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="735">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>9T5R9i</t>
+    <t>9lW5Ax</t>
   </si>
   <si>
     <t>1977</t>
@@ -2124,21 +2124,21 @@
     <t>451</t>
   </si>
   <si>
+    <t>38262</t>
+  </si>
+  <si>
     <t>452</t>
   </si>
   <si>
-    <t>36556</t>
-  </si>
-  <si>
     <t>453</t>
   </si>
   <si>
+    <t>11902</t>
+  </si>
+  <si>
     <t>454</t>
   </si>
   <si>
-    <t>9243</t>
-  </si>
-  <si>
     <t>455</t>
   </si>
   <si>
@@ -2172,30 +2172,30 @@
     <t>465</t>
   </si>
   <si>
+    <t>122409</t>
+  </si>
+  <si>
     <t>466</t>
   </si>
   <si>
-    <t>124341</t>
+    <t>507438</t>
+  </si>
+  <si>
+    <t>46590</t>
   </si>
   <si>
     <t>467</t>
   </si>
   <si>
-    <t>407430</t>
-  </si>
-  <si>
-    <t>45873</t>
+    <t>245845</t>
+  </si>
+  <si>
+    <t>21571</t>
   </si>
   <si>
     <t>468</t>
   </si>
   <si>
-    <t>236690</t>
-  </si>
-  <si>
-    <t>17220</t>
-  </si>
-  <si>
     <t>469</t>
   </si>
   <si>
@@ -2208,25 +2208,19 @@
     <t>472</t>
   </si>
   <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>1282</t>
+  </si>
+  <si>
     <t>473</t>
   </si>
   <si>
     <t>474</t>
   </si>
   <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>2043</t>
-  </si>
-  <si>
     <t>475</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>477</t>
   </si>
 </sst>
 </file>
@@ -2611,7 +2605,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V478"/>
+  <dimension ref="A1:V476"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -33304,16 +33298,16 @@
         <v>700</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>624</v>
+        <v>516</v>
       </c>
       <c r="H452" s="1" t="s">
-        <v>625</v>
+        <v>517</v>
       </c>
       <c r="I452" s="1" t="s">
-        <v>625</v>
+        <v>518</v>
       </c>
       <c r="J452" s="2" t="s">
         <v>29</v>
@@ -33331,7 +33325,7 @@
         <v>34</v>
       </c>
       <c r="O452" s="2" t="s">
-        <v>53</v>
+        <v>702</v>
       </c>
       <c r="P452" s="2" t="s">
         <v>34</v>
@@ -33366,22 +33360,22 @@
         <v>22</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E453" s="2" t="s">
         <v>700</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>516</v>
+        <v>256</v>
       </c>
       <c r="H453" s="1" t="s">
-        <v>517</v>
+        <v>257</v>
       </c>
       <c r="I453" s="1" t="s">
-        <v>518</v>
+        <v>258</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>29</v>
@@ -33396,10 +33390,10 @@
         <v>32</v>
       </c>
       <c r="N453" s="2" t="s">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="O453" s="2" t="s">
-        <v>703</v>
+        <v>212</v>
       </c>
       <c r="P453" s="2" t="s">
         <v>34</v>
@@ -33440,16 +33434,16 @@
         <v>700</v>
       </c>
       <c r="F454" s="2" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="H454" s="1" t="s">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="I454" s="1" t="s">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="J454" s="2" t="s">
         <v>29</v>
@@ -33464,10 +33458,10 @@
         <v>32</v>
       </c>
       <c r="N454" s="2" t="s">
-        <v>60</v>
+        <v>281</v>
       </c>
       <c r="O454" s="2" t="s">
-        <v>262</v>
+        <v>705</v>
       </c>
       <c r="P454" s="2" t="s">
         <v>34</v>
@@ -33502,22 +33496,22 @@
         <v>22</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>700</v>
       </c>
       <c r="F455" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="H455" s="1" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="I455" s="1" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="J455" s="2" t="s">
         <v>29</v>
@@ -33532,10 +33526,10 @@
         <v>32</v>
       </c>
       <c r="N455" s="2" t="s">
-        <v>247</v>
+        <v>48</v>
       </c>
       <c r="O455" s="2" t="s">
-        <v>706</v>
+        <v>272</v>
       </c>
       <c r="P455" s="2" t="s">
         <v>34</v>
@@ -33576,16 +33570,16 @@
         <v>700</v>
       </c>
       <c r="F456" s="2" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="G456" s="1" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="H456" s="1" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="I456" s="1" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="J456" s="2" t="s">
         <v>29</v>
@@ -33600,10 +33594,10 @@
         <v>32</v>
       </c>
       <c r="N456" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="O456" s="2" t="s">
-        <v>330</v>
+        <v>55</v>
       </c>
       <c r="P456" s="2" t="s">
         <v>34</v>
@@ -33644,16 +33638,16 @@
         <v>700</v>
       </c>
       <c r="F457" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H457" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I457" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J457" s="2" t="s">
         <v>29</v>
@@ -33668,13 +33662,13 @@
         <v>32</v>
       </c>
       <c r="N457" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O457" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P457" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="O457" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P457" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="Q457" s="2" t="s">
         <v>34</v>
@@ -33712,16 +33706,16 @@
         <v>700</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="G458" s="1" t="s">
-        <v>180</v>
+        <v>454</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>181</v>
+        <v>455</v>
       </c>
       <c r="I458" s="1" t="s">
-        <v>181</v>
+        <v>456</v>
       </c>
       <c r="J458" s="2" t="s">
         <v>29</v>
@@ -33736,10 +33730,10 @@
         <v>32</v>
       </c>
       <c r="N458" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O458" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="P458" s="2" t="s">
         <v>34</v>
@@ -33780,16 +33774,16 @@
         <v>700</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G459" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="I459" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="J459" s="2" t="s">
         <v>29</v>
@@ -33804,10 +33798,10 @@
         <v>32</v>
       </c>
       <c r="N459" s="2" t="s">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="O459" s="2" t="s">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="P459" s="2" t="s">
         <v>34</v>
@@ -33848,16 +33842,16 @@
         <v>700</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G460" s="1" t="s">
-        <v>458</v>
+        <v>672</v>
       </c>
       <c r="H460" s="1" t="s">
-        <v>459</v>
+        <v>673</v>
       </c>
       <c r="I460" s="1" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J460" s="2" t="s">
         <v>29</v>
@@ -33872,10 +33866,10 @@
         <v>32</v>
       </c>
       <c r="N460" s="2" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="O460" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="P460" s="2" t="s">
         <v>34</v>
@@ -33916,16 +33910,16 @@
         <v>700</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G461" s="1" t="s">
-        <v>672</v>
+        <v>184</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>673</v>
+        <v>185</v>
       </c>
       <c r="I461" s="1" t="s">
-        <v>674</v>
+        <v>185</v>
       </c>
       <c r="J461" s="2" t="s">
         <v>29</v>
@@ -33984,16 +33978,16 @@
         <v>700</v>
       </c>
       <c r="F462" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="G462" s="1" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="I462" s="1" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="J462" s="2" t="s">
         <v>29</v>
@@ -34011,7 +34005,7 @@
         <v>34</v>
       </c>
       <c r="O462" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P462" s="2" t="s">
         <v>34</v>
@@ -34052,16 +34046,16 @@
         <v>700</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="I463" s="1" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="J463" s="2" t="s">
         <v>29</v>
@@ -34079,7 +34073,7 @@
         <v>34</v>
       </c>
       <c r="O463" s="2" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="P463" s="2" t="s">
         <v>34</v>
@@ -34120,16 +34114,16 @@
         <v>700</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="G464" s="1" t="s">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="I464" s="1" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="J464" s="2" t="s">
         <v>29</v>
@@ -34144,10 +34138,10 @@
         <v>32</v>
       </c>
       <c r="N464" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="O464" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P464" s="2" t="s">
         <v>34</v>
@@ -34188,16 +34182,16 @@
         <v>700</v>
       </c>
       <c r="F465" s="2" t="s">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="G465" s="1" t="s">
-        <v>102</v>
+        <v>351</v>
       </c>
       <c r="H465" s="1" t="s">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="I465" s="1" t="s">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="J465" s="2" t="s">
         <v>29</v>
@@ -34212,7 +34206,7 @@
         <v>32</v>
       </c>
       <c r="N465" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O465" s="2" t="s">
         <v>53</v>
@@ -34256,16 +34250,16 @@
         <v>700</v>
       </c>
       <c r="F466" s="2" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>351</v>
+        <v>61</v>
       </c>
       <c r="H466" s="1" t="s">
-        <v>352</v>
+        <v>62</v>
       </c>
       <c r="I466" s="1" t="s">
-        <v>352</v>
+        <v>62</v>
       </c>
       <c r="J466" s="2" t="s">
         <v>29</v>
@@ -34280,13 +34274,13 @@
         <v>32</v>
       </c>
       <c r="N466" s="2" t="s">
-        <v>59</v>
+        <v>718</v>
       </c>
       <c r="O466" s="2" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="P466" s="2" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="Q466" s="2" t="s">
         <v>34</v>
@@ -34318,22 +34312,22 @@
         <v>22</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>700</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G467" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="H467" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I467" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="J467" s="2" t="s">
         <v>29</v>
@@ -34348,16 +34342,16 @@
         <v>32</v>
       </c>
       <c r="N467" s="2" t="s">
-        <v>719</v>
+        <v>34</v>
       </c>
       <c r="O467" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="P467" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="Q467" s="2" t="s">
-        <v>34</v>
+        <v>720</v>
       </c>
       <c r="R467" s="2" t="s">
         <v>34</v>
@@ -34366,7 +34360,7 @@
         <v>34</v>
       </c>
       <c r="T467" s="2" t="s">
-        <v>34</v>
+        <v>721</v>
       </c>
       <c r="U467" s="1" t="s">
         <v>35</v>
@@ -34386,22 +34380,22 @@
         <v>22</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>700</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="G468" s="1" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="H468" s="1" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="I468" s="1" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J468" s="2" t="s">
         <v>29</v>
@@ -34416,16 +34410,16 @@
         <v>32</v>
       </c>
       <c r="N468" s="2" t="s">
-        <v>34</v>
+        <v>723</v>
       </c>
       <c r="O468" s="2" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="P468" s="2" t="s">
-        <v>34</v>
+        <v>724</v>
       </c>
       <c r="Q468" s="2" t="s">
-        <v>721</v>
+        <v>34</v>
       </c>
       <c r="R468" s="2" t="s">
         <v>34</v>
@@ -34434,7 +34428,7 @@
         <v>34</v>
       </c>
       <c r="T468" s="2" t="s">
-        <v>722</v>
+        <v>34</v>
       </c>
       <c r="U468" s="1" t="s">
         <v>35</v>
@@ -34454,22 +34448,22 @@
         <v>22</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>700</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G469" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="H469" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="I469" s="1" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="J469" s="2" t="s">
         <v>29</v>
@@ -34484,13 +34478,13 @@
         <v>32</v>
       </c>
       <c r="N469" s="2" t="s">
-        <v>724</v>
+        <v>79</v>
       </c>
       <c r="O469" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="P469" s="2" t="s">
-        <v>725</v>
+        <v>34</v>
       </c>
       <c r="Q469" s="2" t="s">
         <v>34</v>
@@ -34528,16 +34522,16 @@
         <v>700</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>288</v>
+        <v>141</v>
       </c>
       <c r="G470" s="1" t="s">
-        <v>503</v>
+        <v>142</v>
       </c>
       <c r="H470" s="1" t="s">
-        <v>504</v>
+        <v>143</v>
       </c>
       <c r="I470" s="1" t="s">
-        <v>504</v>
+        <v>143</v>
       </c>
       <c r="J470" s="2" t="s">
         <v>29</v>
@@ -34555,7 +34549,7 @@
         <v>34</v>
       </c>
       <c r="O470" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P470" s="2" t="s">
         <v>34</v>
@@ -34596,16 +34590,16 @@
         <v>700</v>
       </c>
       <c r="F471" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="G471" s="1" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H471" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="I471" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="J471" s="2" t="s">
         <v>29</v>
@@ -34620,10 +34614,10 @@
         <v>32</v>
       </c>
       <c r="N471" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="O471" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="P471" s="2" t="s">
         <v>34</v>
@@ -34664,16 +34658,16 @@
         <v>700</v>
       </c>
       <c r="F472" s="2" t="s">
-        <v>141</v>
+        <v>316</v>
       </c>
       <c r="G472" s="1" t="s">
-        <v>142</v>
+        <v>508</v>
       </c>
       <c r="H472" s="1" t="s">
-        <v>143</v>
+        <v>509</v>
       </c>
       <c r="I472" s="1" t="s">
-        <v>143</v>
+        <v>509</v>
       </c>
       <c r="J472" s="2" t="s">
         <v>29</v>
@@ -34688,10 +34682,10 @@
         <v>32</v>
       </c>
       <c r="N472" s="2" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="O472" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="P472" s="2" t="s">
         <v>34</v>
@@ -34732,16 +34726,16 @@
         <v>700</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="H473" s="1" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="I473" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="J473" s="2" t="s">
         <v>29</v>
@@ -34756,10 +34750,10 @@
         <v>32</v>
       </c>
       <c r="N473" s="2" t="s">
-        <v>140</v>
+        <v>730</v>
       </c>
       <c r="O473" s="2" t="s">
-        <v>91</v>
+        <v>731</v>
       </c>
       <c r="P473" s="2" t="s">
         <v>34</v>
@@ -34794,22 +34788,22 @@
         <v>22</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E474" s="2" t="s">
         <v>700</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G474" s="1" t="s">
-        <v>508</v>
+        <v>371</v>
       </c>
       <c r="H474" s="1" t="s">
-        <v>509</v>
+        <v>372</v>
       </c>
       <c r="I474" s="1" t="s">
-        <v>509</v>
+        <v>372</v>
       </c>
       <c r="J474" s="2" t="s">
         <v>29</v>
@@ -34824,10 +34818,10 @@
         <v>32</v>
       </c>
       <c r="N474" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="O474" s="2" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="P474" s="2" t="s">
         <v>34</v>
@@ -34862,22 +34856,22 @@
         <v>22</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E475" s="2" t="s">
         <v>700</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="G475" s="1" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="H475" s="1" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="I475" s="1" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="J475" s="2" t="s">
         <v>29</v>
@@ -34892,10 +34886,10 @@
         <v>32</v>
       </c>
       <c r="N475" s="2" t="s">
-        <v>732</v>
+        <v>53</v>
       </c>
       <c r="O475" s="2" t="s">
-        <v>733</v>
+        <v>59</v>
       </c>
       <c r="P475" s="2" t="s">
         <v>34</v>
@@ -34936,16 +34930,16 @@
         <v>700</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>371</v>
+        <v>551</v>
       </c>
       <c r="H476" s="1" t="s">
-        <v>372</v>
+        <v>552</v>
       </c>
       <c r="I476" s="1" t="s">
-        <v>372</v>
+        <v>552</v>
       </c>
       <c r="J476" s="2" t="s">
         <v>29</v>
@@ -34963,7 +34957,7 @@
         <v>53</v>
       </c>
       <c r="O476" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P476" s="2" t="s">
         <v>34</v>
@@ -34984,142 +34978,6 @@
         <v>35</v>
       </c>
       <c r="V476" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D477" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E477" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="F477" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G477" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H477" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I477" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J477" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K477" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L477" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M477" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N477" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O477" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P477" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q477" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R477" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S477" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T477" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U477" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V477" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="E478" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="F478" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G478" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="H478" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="I478" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="J478" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K478" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L478" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M478" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N478" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O478" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P478" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q478" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R478" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S478" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T478" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U478" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V478" s="2" t="s">
         <v>34</v>
       </c>
     </row>
